--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\supermarketSys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516052AE-7C80-48BB-AF3F-597D6C6C2F32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9133BFFA-5173-423A-BF4A-CFBC7135927B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12252" yWindow="768" windowWidth="9984" windowHeight="10644" xr2:uid="{F28190C3-0379-41F5-ACFB-3DED00738198}"/>
+    <workbookView xWindow="5616" yWindow="1116" windowWidth="9984" windowHeight="10644" xr2:uid="{F28190C3-0379-41F5-ACFB-3DED00738198}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,243 +31,216 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
   <si>
     <t>factorycode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>describe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>place</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commodity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>含税单价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prices</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchasingprice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipprice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellingprice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>riskinventory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxinventory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shelves</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>treatmentdate</t>
+  </si>
+  <si>
+    <t>Inventorydetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职工管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>describe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplier</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工厂码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>过期日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>place</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>production</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expiration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commodity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品价格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进货价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>含税单价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prices</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>purchasingprice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vipprice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellingprice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有库存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>危险库存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大库存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>货架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>riskinventory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxinventory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shelves</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inventory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存明细</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>treatmentdate</t>
-  </si>
-  <si>
-    <t>Inventorydetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>职工管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>打卡记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时长</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -435,7 +408,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>levels</t>
+    <t>供应商编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -820,15 +801,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBB1FC5-C6FF-4114-B3F6-84D625C83854}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
@@ -837,40 +819,40 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -878,361 +860,345 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" t="s">
         <v>44</v>
       </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" t="s">
-        <v>51</v>
-      </c>
       <c r="P4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>92</v>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
         <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" t="s">
-        <v>94</v>
-      </c>
-      <c r="M14" t="s">
-        <v>98</v>
-      </c>
-      <c r="N14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\supermarketSys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9133BFFA-5173-423A-BF4A-CFBC7135927B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6E8CC0-5538-40C9-87D8-558888C6C39B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="1116" windowWidth="9984" windowHeight="10644" xr2:uid="{F28190C3-0379-41F5-ACFB-3DED00738198}"/>
+    <workbookView xWindow="-12" yWindow="1188" windowWidth="9984" windowHeight="10644" xr2:uid="{F28190C3-0379-41F5-ACFB-3DED00738198}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
   <si>
     <t>factorycode</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -417,6 +417,62 @@
   </si>
   <si>
     <t>pId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orderform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkperson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderformDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sumprice</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -801,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBB1FC5-C6FF-4114-B3F6-84D625C83854}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -815,6 +871,7 @@
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1072,6 +1129,12 @@
       <c r="N10" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="P10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1104,6 +1167,12 @@
       <c r="N11" t="s">
         <v>3</v>
       </c>
+      <c r="P11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1136,6 +1205,12 @@
       <c r="N12" t="s">
         <v>86</v>
       </c>
+      <c r="P12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1162,6 +1237,12 @@
       <c r="K13" t="s">
         <v>88</v>
       </c>
+      <c r="P13" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1176,6 +1257,12 @@
       <c r="H14" t="s">
         <v>76</v>
       </c>
+      <c r="P14" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
@@ -1184,6 +1271,12 @@
       <c r="H15" t="s">
         <v>77</v>
       </c>
+      <c r="P15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
@@ -1193,12 +1286,60 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>84</v>
       </c>
       <c r="H17" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\supermarketSys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\supermarketSys\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6E8CC0-5538-40C9-87D8-558888C6C39B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04065D58-69CA-461B-B364-F373FF8A518E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="1188" windowWidth="9984" windowHeight="10644" xr2:uid="{F28190C3-0379-41F5-ACFB-3DED00738198}"/>
+    <workbookView xWindow="9468" yWindow="648" windowWidth="9984" windowHeight="10644" xr2:uid="{F28190C3-0379-41F5-ACFB-3DED00738198}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="125">
   <si>
     <t>factorycode</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -473,6 +473,61 @@
   </si>
   <si>
     <t>sumprice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salesform</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售单表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salesorderno</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salestime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesformDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>pricestate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -857,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBB1FC5-C6FF-4114-B3F6-84D625C83854}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -868,7 +923,7 @@
     <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" customWidth="1"/>
     <col min="16" max="16" width="17.77734375" customWidth="1"/>
@@ -1301,6 +1356,18 @@
       <c r="B20" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1309,6 +1376,18 @@
       <c r="B21" t="s">
         <v>100</v>
       </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1317,6 +1396,18 @@
       <c r="B22" t="s">
         <v>3</v>
       </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1325,6 +1416,18 @@
       <c r="B23" t="s">
         <v>30</v>
       </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1333,6 +1436,18 @@
       <c r="B24" t="s">
         <v>109</v>
       </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1340,6 +1455,26 @@
       </c>
       <c r="B25" t="s">
         <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
